--- a/doc/test scenarios/tic_tac_toe.xlsx
+++ b/doc/test scenarios/tic_tac_toe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repozytoria\TicTacToe\tictactoe\doc\test scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E897CB8B-677E-45DE-82DE-0E588FE72763}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607AEDF9-2139-4B7C-B7DD-363AB49136FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{61CECABE-1414-448D-9CFE-112B0938BD9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{61CECABE-1414-448D-9CFE-112B0938BD9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenariusz testowy" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="168">
   <si>
     <t>Id</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Gracz wychodzi z gry</t>
   </si>
   <si>
-    <t>Gracz z poziomu menu głównego wpisuje kemende do zmaknięcia gry</t>
-  </si>
-  <si>
     <t>Gracz  wpisuje komende do uruchomienia gry</t>
   </si>
   <si>
@@ -198,21 +195,6 @@
     <t>Krok 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Gracze na zmianę wpisują współrzędne a na planszy pojawiają się znaki graczy </t>
-  </si>
-  <si>
-    <t>Co ruch gracza na planszy pojawią się znaki odpowiadające danemu graczowi</t>
-  </si>
-  <si>
-    <t>Plansza co ruch odświeża się a razem z nią pojawiają się "O" i "X"</t>
-  </si>
-  <si>
-    <t>Krok3</t>
-  </si>
-  <si>
-    <t>Rozgrywka kończy się na korzyść gracza a z nią pojawia się stosowny napis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Po skończonej rozgrywce gracz który wygrał dostał informację o wygranej </t>
   </si>
   <si>
@@ -270,12 +252,6 @@
     <t>#1.2D</t>
   </si>
   <si>
-    <t>Gracze przypisują liczbę miejszą od 1 albo większą od 3 dla wiersza planszy</t>
-  </si>
-  <si>
-    <t>Gracze przypisują liczbę miejszą od 1 albo większą od 3 dla kolumny planszy</t>
-  </si>
-  <si>
     <t>Gracz wpisuje liczbę 0 przypisując ją do kolumny planszy</t>
   </si>
   <si>
@@ -309,15 +285,6 @@
     <t>Współrzędne powinny przyjmować tylko wasrtości liczbowe</t>
   </si>
   <si>
-    <t>Gracze rozgrywaja gre według założeń gry tak aby jeden gracz wygrał</t>
-  </si>
-  <si>
-    <t>Po skońzconej rozgrywce na dole planszy pojawi się komunikat o zwycięstwie gracza</t>
-  </si>
-  <si>
-    <t>Gracze rozgrywaja gre według założeń gry tak aby grazakończyła się remisem</t>
-  </si>
-  <si>
     <t>Rozgrywka kończy się remisem a gra wyświetla komunikat o zakończeniu rozgrywki remisem</t>
   </si>
   <si>
@@ -333,17 +300,254 @@
     <t xml:space="preserve">Uruchomić grę </t>
   </si>
   <si>
-    <t>Uruchomić grę i wpisac komende do instrukcji gry</t>
-  </si>
-  <si>
-    <t>Uruchomić grę i wprowadzic ją w stan rozgrywki</t>
+    <t>Uruchomić grę i przejść do instrukcji za pomocą komendy</t>
+  </si>
+  <si>
+    <t>Uruchomić grę i przejść do rozgrywki</t>
+  </si>
+  <si>
+    <t>Gracz z poziomu menu głównego wpisuje komende("instrukcja") do uruchamiania instrukcji</t>
+  </si>
+  <si>
+    <t>Gracz przypisują liczbę miejszą od 1 albo większą od 3 dla wiersza planszy</t>
+  </si>
+  <si>
+    <t>Gracz przypisują liczbę miejszą od 1 albo większą od 3 dla kolumny planszy</t>
+  </si>
+  <si>
+    <t>Gracz ze znakiem "O" wpisuje współrzedne 1,1</t>
+  </si>
+  <si>
+    <t>W polu planszy na współrzędnych 1,1 pojawi się znak gracza</t>
+  </si>
+  <si>
+    <t>Na polu 1,1 pojawił się znak "O"</t>
+  </si>
+  <si>
+    <t>Gracz ze znakiem "X" wpisuje współrzedne 1,2</t>
+  </si>
+  <si>
+    <t>W polu planszy na współrzędnych 1,2 pojawi się znak gracza</t>
+  </si>
+  <si>
+    <t>Na polu 1,2 pojawił się znak "X"</t>
+  </si>
+  <si>
+    <t>Krok 4</t>
+  </si>
+  <si>
+    <t>Krok 5</t>
+  </si>
+  <si>
+    <t>Krok 6</t>
+  </si>
+  <si>
+    <t>Krok 7</t>
+  </si>
+  <si>
+    <t>Gracz ze znakiem "O" wpisuje współrzedne 2,2</t>
+  </si>
+  <si>
+    <t>Gracz ze znakiem "X" wpisuje współrzedne 3,3</t>
+  </si>
+  <si>
+    <t>Gracz ze znakiem "O" wpisuje współrzedne 2,3</t>
+  </si>
+  <si>
+    <t>Gracz ze znakiem "X" wpisuje współrzedne 2,1</t>
+  </si>
+  <si>
+    <t>Gracz ze znakiem "O" wpisuje współrzedne 1,3</t>
+  </si>
+  <si>
+    <t>Gracz ze znakiem "X" wpisuje współrzedne 3,2</t>
+  </si>
+  <si>
+    <t>Gracz ze znakiem "O" wpisuje współrzedne 3,1</t>
+  </si>
+  <si>
+    <t>W polu planszy na współrzędnych 2,2 pojawi się znak gracza</t>
+  </si>
+  <si>
+    <t>Na polu 2,2 pojawił się znak "O"</t>
+  </si>
+  <si>
+    <t>W polu planszy na współrzędnych 3,3 pojawi się znak gracza</t>
+  </si>
+  <si>
+    <t>Na polu 3,3 pojawił się znak "X"</t>
+  </si>
+  <si>
+    <t>W polu planszy na współrzędnych 2,3 pojawi się znak gracza</t>
+  </si>
+  <si>
+    <t>Na polu 2,3 pojawił się znak "O"</t>
+  </si>
+  <si>
+    <t>W polu planszy na współrzędnych 2,1 pojawi się znak gracza</t>
+  </si>
+  <si>
+    <t>Na polu 2,1 pojawił się znak "X"</t>
+  </si>
+  <si>
+    <t>W polu planszy na współrzędnych 1,3 pojawi się znak gracza</t>
+  </si>
+  <si>
+    <t>Na polu 1,3 pojawił się znak "O"</t>
+  </si>
+  <si>
+    <t>W polu planszy na współrzędnych 3,2 pojawi się znak gracza</t>
+  </si>
+  <si>
+    <t>Na polu 3,2 pojawił się znak "X"</t>
+  </si>
+  <si>
+    <t>W polu planszy na współrzędnych 3,1 pojawi się znak gracza</t>
+  </si>
+  <si>
+    <t>Na polu 3,1 pojawił się znak "O"</t>
+  </si>
+  <si>
+    <t>Krok 8</t>
+  </si>
+  <si>
+    <t>Krok 9</t>
+  </si>
+  <si>
+    <t>Krok 10</t>
+  </si>
+  <si>
+    <t>Krok 11</t>
+  </si>
+  <si>
+    <t>Rozgrywka kończy się na korzyść gracza za znakiem "O"</t>
+  </si>
+  <si>
+    <t>Po skońzconej rozgrywce na dole planszy pojawi się komunikat o zwycięstwie gracza ze znakiem "O"</t>
+  </si>
+  <si>
+    <t>Gracze rozgrywaja gre według założeń gry tak aby gracz ze znakiem "O" wygrał</t>
+  </si>
+  <si>
+    <t>Gracz ze znakiem "O" wpisuje współrzedne 2,1</t>
+  </si>
+  <si>
+    <t>Na polu 2,1 pojawił się znak "O"</t>
+  </si>
+  <si>
+    <t>Gracz ze znakiem "X" wpisuje współrzedne 2,2</t>
+  </si>
+  <si>
+    <t>Na polu 2,2 pojawił się znak "X"</t>
+  </si>
+  <si>
+    <t>Gracz ze znakiem "X" wpisuje współrzedne 3,1</t>
+  </si>
+  <si>
+    <t>Na polu 3,1 pojawił się znak "X"</t>
+  </si>
+  <si>
+    <t>Gracz ze znakiem "O" wpisuje współrzedne 1,2</t>
+  </si>
+  <si>
+    <t>Na polu 1,2 pojawił się znak "O"</t>
+  </si>
+  <si>
+    <t>Gracz ze znakiem "X" wpisuje współrzedne 1,3</t>
+  </si>
+  <si>
+    <t>Na polu 1,3 pojawił się znak "X"</t>
+  </si>
+  <si>
+    <t>Gracze rozgrywaja gre według założeń gry tak aby gracz ze znakiem "x" wygrał</t>
+  </si>
+  <si>
+    <t>Rozgrywka kończy się na korzyść gracza za znakiem "X"</t>
+  </si>
+  <si>
+    <t>Po skońzconej rozgrywce na dole planszy pojawi się komunikat o zwycięstwie gracza ze znakiem "X"</t>
+  </si>
+  <si>
+    <t>Gracze rozgrywaja gre według założeń gry tak aby gra zakończy się remisem</t>
+  </si>
+  <si>
+    <t>Gracz ze znakiem "O" wpisuje współrzedne 3,2</t>
+  </si>
+  <si>
+    <t>Na polu 3,2 pojawił się znak "O"</t>
+  </si>
+  <si>
+    <t>#1.2G</t>
+  </si>
+  <si>
+    <t>#1.2H</t>
+  </si>
+  <si>
+    <t>#1.1D</t>
+  </si>
+  <si>
+    <t>Gracz wpisuje niepoprawną komende</t>
+  </si>
+  <si>
+    <t>Gracz chce uruchomić gre wpisując komende "Gram"</t>
+  </si>
+  <si>
+    <t>Gracz z poziomu menu głównego wpisuje komende("Gram") do uruchamiania gry</t>
+  </si>
+  <si>
+    <t>Gracz z poziomu menu głównego wpisuje komende("gram") do uruchamiania gry</t>
+  </si>
+  <si>
+    <t>Gra poinformuje gracza o złej komendzie i poprosi go o wpisanie poprawej komendy</t>
+  </si>
+  <si>
+    <t>Gra wyswietliła komunikat o złej komedzie a menu odświerzyło się</t>
+  </si>
+  <si>
+    <t>Gracz chce uruchomić gre wpisując komende "GRaM"</t>
+  </si>
+  <si>
+    <t>Gracz z poziomu menu głównego wpisuje komende("GRaM") do uruchamiania gry</t>
+  </si>
+  <si>
+    <t>#1.1E</t>
+  </si>
+  <si>
+    <t>Gracz z poziomu menu głównego wpisuje komende("koniec") do zmaknięcia gry</t>
+  </si>
+  <si>
+    <t>#1.1F</t>
+  </si>
+  <si>
+    <t>Gracz chce wyjść z gry wpisując komende "Koniec"</t>
+  </si>
+  <si>
+    <t>Gracz z poziomu menu głównego wpisuje komende("Koniec") do uruchamiania gry</t>
+  </si>
+  <si>
+    <t>#1.1G</t>
+  </si>
+  <si>
+    <t>#1.1H</t>
+  </si>
+  <si>
+    <t>Gracz chce wyjść z gry wpisując komende "KoNieC"</t>
+  </si>
+  <si>
+    <t>Gracz z poziomu menu głównego wpisuje komende("KoNieC") do uruchamiania gry</t>
+  </si>
+  <si>
+    <t>Gracz wpisuje losowy wyraz "lk;w2id230=[]"</t>
+  </si>
+  <si>
+    <t>Gracz z poziomu menu głównego wpisuje komende("lk;w2id230=[]") do uruchamiania gry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +573,13 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -389,7 +600,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -423,15 +634,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -522,57 +724,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1609,8 +1808,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0E7F18D-71C2-4626-B337-41D3F6A8AFD6}" name="Tabela5" displayName="Tabela5" ref="A2:J15" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41" totalsRowBorderDxfId="40">
-  <autoFilter ref="A2:J15" xr:uid="{A51153A2-A7F1-43A8-AF63-F5E391AF1316}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0E7F18D-71C2-4626-B337-41D3F6A8AFD6}" name="Tabela5" displayName="Tabela5" ref="A2:J23" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41" totalsRowBorderDxfId="40">
+  <autoFilter ref="A2:J23" xr:uid="{A51153A2-A7F1-43A8-AF63-F5E391AF1316}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{079705CF-9EEF-4E17-959D-399445C0AEB8}" name="Id sc.test." dataDxfId="39"/>
     <tableColumn id="2" xr3:uid="{66536E3F-4A92-4A0B-998D-A4E9684042ED}" name="Id przy.test." dataDxfId="38"/>
@@ -1628,8 +1827,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FE5E203D-8D34-43A4-A014-41A2AAAD3B90}" name="Tabela6" displayName="Tabela6" ref="A2:J30" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
-  <autoFilter ref="A2:J30" xr:uid="{15B01E91-E4A3-43CF-9BFC-4753F005A2A5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FE5E203D-8D34-43A4-A014-41A2AAAD3B90}" name="Tabela6" displayName="Tabela6" ref="A2:J55" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+  <autoFilter ref="A2:J55" xr:uid="{15B01E91-E4A3-43CF-9BFC-4753F005A2A5}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{92BAA416-C2A0-4E7E-B5A7-662E711009E5}" name="Id sc.test." dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{E45D0F9D-C8D4-42DB-B112-046197E7B95F}" name="Id przy.test." dataDxfId="23"/>
@@ -1965,7 +2164,7 @@
   <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,7 +2203,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E3" s="10"/>
     </row>
@@ -2019,11 +2218,11 @@
         <v>20</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
@@ -2034,7 +2233,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E5" s="10"/>
     </row>
@@ -2064,8 +2263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F81E79-C71A-4EDC-A201-5977895788D4}">
   <dimension ref="A2:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2125,7 +2324,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
@@ -2147,10 +2346,10 @@
         <v>28</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>30</v>
@@ -2171,7 +2370,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>26</v>
@@ -2193,10 +2392,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>35</v>
@@ -2219,7 +2418,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>26</v>
@@ -2241,378 +2440,510 @@
         <v>28</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="G8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="I8" s="9" t="s">
         <v>31</v>
       </c>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2625,10 +2956,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B63BCF-9A80-4035-B5CD-BBE246654703}">
-  <dimension ref="A2:J30"/>
+  <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2682,16 +3013,16 @@
         <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>27</v>
@@ -2713,7 +3044,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>30</v>
@@ -2723,44 +3054,44 @@
       </c>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>31</v>
@@ -2768,27 +3099,25 @@
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+        <v>102</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2797,90 +3126,86 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>31</v>
       </c>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>31</v>
       </c>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+        <v>106</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2889,38 +3214,38 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>31</v>
       </c>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>31</v>
@@ -2933,19 +3258,19 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>36</v>
+        <v>52</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J14" s="10"/>
     </row>
@@ -2954,16 +3279,16 @@
         <v>16</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>27</v>
@@ -2985,7 +3310,7 @@
         <v>29</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>30</v>
@@ -3001,16 +3326,16 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>31</v>
@@ -3023,16 +3348,16 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>31</v>
@@ -3040,27 +3365,25 @@
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+        <v>92</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3069,16 +3392,16 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>31</v>
@@ -3091,16 +3414,16 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>31</v>
@@ -3113,114 +3436,110 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>31</v>
       </c>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="B24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="D24" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-    </row>
-    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="9" t="s">
+      <c r="G25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="I25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+        <v>92</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3229,71 +3548,636 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>31</v>
       </c>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>88</v>
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="13"/>
+    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="10"/>
+    </row>
+    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" s="10"/>
+    </row>
+    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" s="10"/>
+    </row>
+    <row r="47" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J49" s="10"/>
+    </row>
+    <row r="50" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J52" s="10"/>
+    </row>
+    <row r="53" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
@@ -3306,7 +4190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8893A10-1CD1-4D1E-B3F0-7C5041C512D4}">
   <dimension ref="A2:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -3361,16 +4245,16 @@
         <v>21</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>27</v>
@@ -3392,7 +4276,7 @@
         <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>35</v>
